--- a/Week 1 - Intro to Data/activity/handout/correct_guesses.xlsx
+++ b/Week 1 - Intro to Data/activity/handout/correct_guesses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atheo\Documents\Teaching\STAT 218\stat-218\Week 1 - Intro to Data\activity\handout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atheobol/Documents/Teaching/Stat 218/stat-218/Week 1 - Intro to Data/activity/handout/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8264849-85F2-4C52-A695-8FEB876F43C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36867CF8-A319-3A43-927B-78DEBABB0785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{304C1DC5-EB8F-48F0-9A67-70B1A2613F8C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20720" windowHeight="13160" xr2:uid="{304C1DC5-EB8F-48F0-9A67-70B1A2613F8C}"/>
   </bookViews>
   <sheets>
     <sheet name="07" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>Cobe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allison </t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Allison</t>
   </si>
 </sst>
 </file>
@@ -447,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00E40D4-876D-4122-A78D-F9E5B34305E7}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -471,7 +480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -479,7 +488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -487,7 +496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -495,7 +504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -503,12 +512,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -518,15 +535,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408D5A68-8B28-4DA9-B13E-55201DF63C3D}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -542,7 +559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -550,7 +567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -558,7 +575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -566,7 +583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -574,7 +591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -582,7 +599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -590,7 +607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -598,7 +615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -606,7 +623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -614,12 +631,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
